--- a/baseline_model_workshop/data/House_Info.xlsx
+++ b/baseline_model_workshop/data/House_Info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model_workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0B4647-AA11-4988-8257-8BE690A27035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33B265-6C56-4904-A853-1E23E521404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,16 +441,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/baseline_model_workshop/data/House_Info.xlsx
+++ b/baseline_model_workshop/data/House_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model_workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33B265-6C56-4904-A853-1E23E521404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826831FF-AC6F-46F5-AE3A-B2C5C7455F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,11 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +390,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,17 +458,17 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>73735</v>
-      </c>
-      <c r="C4" s="1">
-        <v>73735</v>
+      <c r="B4" s="2">
+        <v>129000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>149000</v>
       </c>
       <c r="D4" s="1">
         <v>69000</v>
       </c>
       <c r="E4" s="1">
-        <v>69000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
